--- a/medicine/Sexualité et sexologie/Sillon_interlabial/Sillon_interlabial.xlsx
+++ b/medicine/Sexualité et sexologie/Sillon_interlabial/Sillon_interlabial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sillon interlabial ou sillon vulvaire est un sillon, c'est-à-dire une rainure, qui sépare les lèvres vaginales. Au nombre de deux, ils se trouvent entre la face interne de la grande lèvre et la face externe de la petite lèvre. Contrairement à la face externe des grandes lèvres, la face interne (et donc le sillon) est totalement glabre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon interlabial ou sillon vulvaire est un sillon, c'est-à-dire une rainure, qui sépare les lèvres vaginales. Au nombre de deux, ils se trouvent entre la face interne de la grande lèvre et la face externe de la petite lèvre. Contrairement à la face externe des grandes lèvres, la face interne (et donc le sillon) est totalement glabre.
 			Vulve imberbe, avec les sillons bien visibles et ombragés.
 			Vulve avec les grandes lèvres écartées : les sillons sont distinguables.
 </t>
